--- a/Учет цистерн/Forms/ReportTemplates/Реестр АУТН.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/Реестр АУТН.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\d.omarbayev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CisAccount\Учет цистерн\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EF3DD5-B73B-4410-839E-2EAB3BDC50F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0569184C-D556-4AB5-AF35-C988BB999F9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2655" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="АУТН" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -197,40 +197,40 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,7 +516,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,110 +527,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="108" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="9" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="10" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="11" t="s">
+      <c r="K2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="9" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Учет цистерн/Forms/ReportTemplates/Реестр АУТН.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/Реестр АУТН.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CisAccount\Учет цистерн\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0569184C-D556-4AB5-AF35-C988BB999F9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD013D11-DEE4-455C-B28E-BAB8A140F0FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2655" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="АУТН" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,18 +115,8 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -197,40 +187,40 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,7 +506,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,110 +517,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="108" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="8" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="9" t="s">
+      <c r="K2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -644,5 +634,6 @@
     <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>